--- a/biology/Zoologie/Alopia_glorifica/Alopia_glorifica.xlsx
+++ b/biology/Zoologie/Alopia_glorifica/Alopia_glorifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopia glorifica est une espèce de petits gastéropodes terrestres de la famille des Clausiliidae qui se rencontre en Roumanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 mars 2023) :
 Alopia glorifica boettgeri M.von Kimakowicz, 1883
 Alopia glorifica deceptans Deli &amp; Szekeres, 2011
 Alopia glorifica elegantissima H.Nordsieck, 1977
@@ -553,11 +567,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Alopia glorifica (Charpentier, 1852)[1].
-L'espèce a été initialement classée dans le genre Clausilia sous le protonyme Clausilia glorifica Charpentier, 1852[1].
-Alopia glorifica a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Alopia glorifica (Charpentier, 1852).
+L'espèce a été initialement classée dans le genre Clausilia sous le protonyme Clausilia glorifica Charpentier, 1852.
+Alopia glorifica a pour synonyme :
 Alopia glorifica (Charpentier, 1852)</t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean de Charpentier, « Essai d'une classification naturelle des Clausilies », Journal de Conchyliologie, vol. 3, p. 357-408, 1852, Pl. 11, Paris (lire en ligne).</t>
         </is>
